--- a/Lab-09/Copy of sample-data.xlsx
+++ b/Lab-09/Copy of sample-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
   <si>
     <t>Team</t>
   </si>
@@ -252,9 +252,6 @@
     <t>srv032</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Sample business objective</t>
   </si>
   <si>
@@ -325,6 +322,51 @@
   </si>
   <si>
     <t>Efficiently manage suppliers and accounts payable, minimize waste in inbound supply chain</t>
+  </si>
+  <si>
+    <t>T01-Marketing services</t>
+  </si>
+  <si>
+    <t>T02-eCommerce services</t>
+  </si>
+  <si>
+    <t>T03-Fulfillment services</t>
+  </si>
+  <si>
+    <t>T04-Supply chain services</t>
+  </si>
+  <si>
+    <t>T05-Corporate services</t>
+  </si>
+  <si>
+    <t>T06-Product services</t>
+  </si>
+  <si>
+    <t>T99-Sample services</t>
+  </si>
+  <si>
+    <t>T100-Sample service 2</t>
+  </si>
+  <si>
+    <t>Sample objective 2</t>
+  </si>
+  <si>
+    <t>Sample process 2</t>
+  </si>
+  <si>
+    <t>SM3 - Sample app 3</t>
+  </si>
+  <si>
+    <t>srv1000</t>
+  </si>
+  <si>
+    <t>SM4 - Sample app 4</t>
+  </si>
+  <si>
+    <t>srv1001</t>
+  </si>
+  <si>
+    <t>SM1, SM4</t>
   </si>
 </sst>
 </file>
@@ -717,15 +759,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="34.625" customWidth="1"/>
@@ -755,8 +797,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -776,13 +818,13 @@
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -798,18 +840,18 @@
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -830,7 +872,7 @@
     <row r="7" spans="1:6" ht="14.25">
       <c r="B7"/>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -865,7 +907,7 @@
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -880,8 +922,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -944,17 +986,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="57">
-      <c r="A19">
-        <v>4</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -1008,8 +1050,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.5">
-      <c r="A25">
-        <v>5</v>
+      <c r="A25" t="s">
+        <v>105</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>56</v>
@@ -1024,18 +1066,18 @@
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25">
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25">
@@ -1074,8 +1116,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25">
-      <c r="A31">
-        <v>6</v>
+      <c r="A31" t="s">
+        <v>106</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>69</v>
@@ -1095,18 +1137,18 @@
     </row>
     <row r="32" spans="1:6" ht="14.25">
       <c r="D32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -1118,10 +1160,10 @@
     <row r="34" spans="1:6" ht="14.25">
       <c r="B34"/>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
@@ -1130,37 +1172,65 @@
     <row r="35" spans="1:6" ht="14.25">
       <c r="B35"/>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25"/>
     <row r="37" spans="1:6" ht="14.25"/>
     <row r="38" spans="1:6" ht="14.25">
       <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>80</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>81</v>
-      </c>
-      <c r="F38" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25">
       <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
         <v>83</v>
       </c>
-      <c r="E39" t="s">
-        <v>84</v>
+    </row>
+    <row r="41" spans="1:6" ht="14.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Lab-09/Copy of sample-data.xlsx
+++ b/Lab-09/Copy of sample-data.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>Team</t>
   </si>
@@ -51,9 +51,6 @@
     <t>srv001</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>srv002</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>srv029</t>
   </si>
   <si>
-    <t>CSM, CRM</t>
-  </si>
-  <si>
     <t>srv030</t>
   </si>
   <si>
@@ -367,6 +361,9 @@
   </si>
   <si>
     <t>SM1, SM4</t>
+  </si>
+  <si>
+    <t>CSM, CRM, TT</t>
   </si>
 </sst>
 </file>
@@ -761,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="3" customWidth="1"/>
@@ -798,7 +795,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -813,424 +810,422 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7"/>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8"/>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9"/>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10"/>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="E12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:6">
       <c r="B15"/>
       <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25">
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25">
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25">
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="57">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25">
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25">
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="E22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25">
-      <c r="E22" t="s">
+    <row r="23" spans="1:6">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25">
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>53</v>
       </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25">
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24"/>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.5">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
         <v>59</v>
       </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25">
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25">
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25">
-      <c r="E28" t="s">
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25">
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="30" spans="1:6">
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25">
-      <c r="E30" t="s">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
         <v>74</v>
       </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25">
-      <c r="D32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25">
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
       <c r="F33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="B34"/>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="B35"/>
       <c r="E35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25"/>
-    <row r="37" spans="1:6" ht="14.25"/>
-    <row r="38" spans="1:6" ht="14.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25">
-      <c r="D39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" t="s">
         <v>109</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>110</v>
       </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
-      </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="D42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
